--- a/sheets/DISAR - M. VON TİETZ - TÜRKİYE 1833 - Kübra.xlsx
+++ b/sheets/DISAR - M. VON TİETZ - TÜRKİYE 1833 - Kübra.xlsx
@@ -116,8 +116,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -236,11 +237,19 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,12 +262,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -369,12 +382,12 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
@@ -386,389 +399,389 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.64"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="n">
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="n">
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="n">
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="n">
         <v>105</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="n">
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="15"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
